--- a/stroopdata.csv.xlsx
+++ b/stroopdata.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Congruent</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>SE_i=</t>
+  </si>
+  <si>
+    <t>x-y</t>
+  </si>
+  <si>
+    <t>x̄d=</t>
+  </si>
+  <si>
+    <t>Sd=</t>
   </si>
 </sst>
 </file>
@@ -2369,14 +2378,14 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="5" width="23.21875" customWidth="1"/>
+    <col min="4" max="5" width="23.21875" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="33.5546875" customWidth="1"/>
   </cols>
@@ -2394,7 +2403,9 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -2407,9 +2418,13 @@
         <f>(A2-$G$5)^2</f>
         <v>3.8892770156250007</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>(B2-$G$6)^2</f>
         <v>7.4961876736111321</v>
+      </c>
+      <c r="E2" s="1">
+        <f>(A2-B2)</f>
+        <v>-7.1989999999999981</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2423,9 +2438,13 @@
         <f t="shared" ref="C3:C25" si="0">(A3-$G$5)^2</f>
         <v>7.5069150156249975</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D25" si="1">(B3-$G$6)^2</f>
         <v>10.72507917361113</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E25" si="2">(A3-B3)</f>
+        <v>-1.9499999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2439,9 +2458,13 @@
         <f t="shared" si="0"/>
         <v>20.134290765625007</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
         <v>0.64307034027778409</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="2"/>
+        <v>-11.649999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2455,9 +2478,13 @@
         <f t="shared" si="0"/>
         <v>29.388596265625001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>40.055186173611155</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.0569999999999986</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -2478,9 +2505,13 @@
         <f t="shared" si="0"/>
         <v>0.38176951562499967</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>0.61950017361110832</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.1340000000000003</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -2501,9 +2532,13 @@
         <f t="shared" si="0"/>
         <v>3.2874222656250045</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>1.2948543402777835</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.64</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2524,9 +2559,13 @@
         <f t="shared" si="0"/>
         <v>0.41072076562499926</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>6.5335620069444271</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.879999999999999</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -2547,9 +2586,13 @@
         <f t="shared" si="0"/>
         <v>25.645362015625008</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>21.362113673611152</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.4069999999999983</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2563,9 +2606,13 @@
         <f t="shared" si="0"/>
         <v>21.623662515625011</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="1"/>
         <v>1.5723070069444498</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>-11.361000000000001</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -2586,9 +2633,13 @@
         <f t="shared" si="0"/>
         <v>0.18393376562499972</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>18.199467006944424</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>-11.802</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -2609,9 +2660,13 @@
         <f t="shared" si="0"/>
         <v>68.506659765624974</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>6.290482006944436</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.1960000000000015</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2625,9 +2680,13 @@
         <f t="shared" si="0"/>
         <v>1.5546972656249982</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
         <v>11.369822006944473</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.3459999999999983</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -2648,9 +2707,13 @@
         <f t="shared" si="0"/>
         <v>1.0442285156249993</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>20.303285006944453</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.4370000000000012</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -2671,9 +2734,13 @@
         <f t="shared" si="0"/>
         <v>8.2821645156249861</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>2.8423150069444589</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.4009999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2687,12 +2754,23 @@
         <f t="shared" si="0"/>
         <v>17.213163765624987</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="1"/>
         <v>175.27332750694444</v>
       </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>-17.055000000000003</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(E2:E25)</f>
+        <v>-7.964791666666664</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.13</v>
       </c>
@@ -2703,12 +2781,23 @@
         <f t="shared" si="0"/>
         <v>3.6907212656249997</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
         <v>2.0187673611110735E-2</v>
       </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>-10.028</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <f>STDEV(E2:E25)</f>
+        <v>4.8648269103590565</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18.495000000000001</v>
       </c>
@@ -2719,12 +2808,16 @@
         <f t="shared" si="0"/>
         <v>19.748025015625004</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>9.7536495069444236</v>
       </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.6439999999999984</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10.638999999999999</v>
       </c>
@@ -2735,12 +2828,16 @@
         <f t="shared" si="0"/>
         <v>11.642597015625009</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>2.5183045069444576</v>
       </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.7899999999999991</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11.343999999999999</v>
       </c>
@@ -2751,12 +2848,16 @@
         <f t="shared" si="0"/>
         <v>7.3285257656250069</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>21.076515840277796</v>
       </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.0810000000000013</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12.369</v>
       </c>
@@ -2767,12 +2868,16 @@
         <f t="shared" si="0"/>
         <v>2.8295445156250034</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>150.60402934027763</v>
       </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>-21.918999999999997</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12.944000000000001</v>
       </c>
@@ -2783,12 +2888,16 @@
         <f t="shared" si="0"/>
         <v>1.2257257656249998</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>3.5271970069444287</v>
       </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>-10.949999999999998</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14.233000000000001</v>
       </c>
@@ -2799,12 +2908,16 @@
         <f t="shared" si="0"/>
         <v>3.3078515624999923E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>16.450460006944457</v>
       </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.7270000000000003</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19.71</v>
       </c>
@@ -2815,12 +2928,16 @@
         <f t="shared" si="0"/>
         <v>32.022866265624998</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <f t="shared" si="1"/>
         <v>1.7710069444442133E-3</v>
       </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.347999999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16.004000000000001</v>
       </c>
@@ -2831,9 +2948,13 @@
         <f t="shared" si="0"/>
         <v>3.8137207656250021</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <f t="shared" si="1"/>
         <v>0.73773784027778211</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.1529999999999987</v>
       </c>
     </row>
   </sheetData>
